--- a/code/results/SA_50_20_400/50_20_400.xlsx
+++ b/code/results/SA_50_20_400/50_20_400.xlsx
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="97" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="97" workbookViewId="0">
+      <selection activeCell="I78" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -997,15 +997,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">

--- a/code/results/SA_50_20_400/50_20_400.xlsx
+++ b/code/results/SA_50_20_400/50_20_400.xlsx
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="97" workbookViewId="0">
-      <selection activeCell="I78" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="96" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1002,25 +1002,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+    </row>
+    <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
@@ -1032,15 +1022,10 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
@@ -1102,215 +1087,110 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+    </row>
+    <row r="81" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+    </row>
+    <row r="82" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+    </row>
+    <row r="83" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+    </row>
+    <row r="84" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+    </row>
+    <row r="85" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+    </row>
+    <row r="86" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+    </row>
+    <row r="87" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+    </row>
+    <row r="88" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+    </row>
+    <row r="89" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+    </row>
+    <row r="90" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+    </row>
+    <row r="91" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+    </row>
+    <row r="92" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+    </row>
+    <row r="93" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+    </row>
+    <row r="94" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+    </row>
+    <row r="95" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+    </row>
+    <row r="96" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+    </row>
+    <row r="97" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+    </row>
+    <row r="98" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+    </row>
+    <row r="99" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+    </row>
+    <row r="100" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/results/SA_50_20_400/50_20_400.xlsx
+++ b/code/results/SA_50_20_400/50_20_400.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -342,18 +342,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -368,9 +362,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -649,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="96" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="96" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -977,218 +970,183 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+    <row r="67" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+    </row>
+    <row r="73" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+    </row>
+    <row r="80" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+    <row r="82" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+    <row r="83" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+    <row r="84" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+    <row r="85" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+    <row r="86" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+    <row r="87" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+    <row r="88" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
+    <row r="89" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+    <row r="90" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+    <row r="91" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+    <row r="92" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
+    <row r="93" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+    <row r="94" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+    <row r="95" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+    <row r="96" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+    <row r="97" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+    <row r="98" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+    <row r="99" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+    <row r="100" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
     </row>
